--- a/tm2025-sm.xlsx
+++ b/tm2025-sm.xlsx
@@ -141,9 +141,6 @@
     <t>H5</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
@@ -979,6 +976,9 @@
   </si>
   <si>
     <t>H40</t>
+  </si>
+  <si>
+    <t>sdfgsfg</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" sqref="A1:H40"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1504,912 +1504,912 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
